--- a/Project2131_P. Cong(2014).xlsx
+++ b/Project2131_P. Cong(2014).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30F7D98-5C56-6949-A62F-E489637094D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C84ECED-C089-F84D-915C-2B2C391D3B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" xr2:uid="{2319E65C-A0DA-9746-B139-F55FA88A0857}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2319E65C-A0DA-9746-B139-F55FA88A0857}"/>
   </bookViews>
   <sheets>
     <sheet name="Project2131" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="64">
   <si>
-    <t>[1] 'Head sclerotization'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [2] 'Head size'</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>NN;0=00;1=10;2=01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1] 'Head sclerotization'</t>
   </si>
 </sst>
 </file>
@@ -284,16 +284,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,16 +312,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>253999</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>149224</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>772518</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -347,8 +344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10261600" y="253999"/>
-          <a:ext cx="10033000" cy="6270625"/>
+          <a:off x="10532533" y="321731"/>
+          <a:ext cx="10695452" cy="6756401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -679,625 +676,622 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F3F8D7-1126-5C42-9970-839CFE733356}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.1640625" customWidth="1"/>
+    <col min="1" max="1" width="83.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="5"/>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>59</v>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>59</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>60</v>
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>59</v>
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>59</v>
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
